--- a/CashFlow/ZS_cashflow.xlsx
+++ b/CashFlow/ZS_cashflow.xlsx
@@ -428,19 +428,19 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>6092000.0</v>
+        <v>35000000.0</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>976000.0</v>
+        <v>25000000.0</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>1816000.0</v>
+        <v>17916000.0</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>3287000.0</v>
+        <v>13326000.0</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>4976000.0</v>
+        <v>8541000.0</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>1328000.0</v>
